--- a/My project/Luban/Config/Datas/BuffInfo.xlsx
+++ b/My project/Luban/Config/Datas/BuffInfo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lofnh\Documents\GitHub\Draconia\My project\Luban\Config\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56729AC8-C3C0-4720-9138-8D30922332F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D18A035-8D62-4F0F-BCF4-E1CF50C26FB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14265" yWindow="2805" windowWidth="28800" windowHeight="9915" tabRatio="599" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="28740" windowHeight="9915" tabRatio="599" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>##</t>
   </si>
@@ -63,22 +63,6 @@
     <t>描述</t>
   </si>
   <si>
-    <t>必定闪避</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下次伤害必定闪避，获得一张周周技能卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>清风</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加攻击力20%，最高可叠加3层。且3层后获得所有伤害百分之50真实伤害buff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>加速</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -92,6 +76,26 @@
   </si>
   <si>
     <t>受到硬直增加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轻盈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有基础卡费用-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>溃敌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础卡可以生效两次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每回合会不会自动减少层数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -423,15 +427,15 @@
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="60.125" customWidth="1"/>
+    <col min="4" max="4" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -481,7 +485,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" ht="57" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -491,7 +495,9 @@
       <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
@@ -509,29 +515,29 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D4" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:13" ht="128.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1">
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D5" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -546,13 +552,13 @@
         <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D6" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -567,13 +573,13 @@
         <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D7" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>

--- a/My project/Luban/Config/Datas/BuffInfo.xlsx
+++ b/My project/Luban/Config/Datas/BuffInfo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lofnh\Documents\GitHub\Draconia\My project\Luban\Config\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D18A035-8D62-4F0F-BCF4-E1CF50C26FB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0B4528E-7156-4DCA-A4CA-6B4790C5DF3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="28740" windowHeight="9915" tabRatio="599" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10485" yWindow="5625" windowWidth="28740" windowHeight="9915" tabRatio="599" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>##</t>
   </si>
@@ -63,22 +63,6 @@
     <t>描述</t>
   </si>
   <si>
-    <t>加速</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提升自身速度20%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重心不稳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>受到硬直增加</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>轻盈</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -96,6 +80,34 @@
   </si>
   <si>
     <t>每回合会不会自动减少层数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞鸟式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扶摇式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周周的基础牌强化不会消耗。强化不可叠加。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每使用3张基础牌，全队-1费用。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsPose</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否是姿态卡</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -426,8 +438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -451,7 +463,9 @@
       <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1"/>
+      <c r="F1" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -476,7 +490,9 @@
       <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="1"/>
+      <c r="F2" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -496,12 +512,14 @@
         <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="1"/>
+      <c r="F3" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -515,13 +533,16 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D4" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>13</v>
+      </c>
+      <c r="F4" t="b">
+        <v>0</v>
       </c>
       <c r="M4" s="1"/>
     </row>
@@ -531,57 +552,63 @@
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D5" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="F5" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1">
         <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D6" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="F6" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="M6" s="1"/>
     </row>
-    <row r="7" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" ht="57" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="1">
         <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D7" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="F7" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>

--- a/My project/Luban/Config/Datas/BuffInfo.xlsx
+++ b/My project/Luban/Config/Datas/BuffInfo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lofnh\Documents\GitHub\Draconia\My project\Luban\Config\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0B4528E-7156-4DCA-A4CA-6B4790C5DF3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{436CC15B-B764-43B5-84C0-307A46B5AC42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10485" yWindow="5625" windowWidth="28740" windowHeight="9915" tabRatio="599" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2445" yWindow="5505" windowWidth="28740" windowHeight="13575" tabRatio="599" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>##</t>
   </si>
@@ -108,6 +108,14 @@
   </si>
   <si>
     <t>是否是姿态卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苦难残留</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>受到真实伤害</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -439,7 +447,7 @@
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -614,13 +622,23 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="B8" s="1">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
